--- a/biology/Zoologie/Eriococcidae/Eriococcidae.xlsx
+++ b/biology/Zoologie/Eriococcidae/Eriococcidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eriococcidae sont une famille d'insectes hémiptères.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eriococcidae produisent une capsule membraneuse blanche, jaunâtre ou grise qui inclut le corps de la femelle adulte. Le corps varie du rose au violet en passant par le rouge, le vert ou le marron. La partie postérieure de la capsule a une petite ouverture qui permet l'émergence de la nymphe.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (16 mai 2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (16 mai 2019) :
 genre Acalyptococcus Lambdin &amp; Kosztarab, 1977
 genre Acanthococcus Signoret, 1875
 genre Aolacoccus Gullan &amp; Williams, 2016
